--- a/작업일지 && 졸작자료/작업일지(김준현)/김준현 5.6.7 계획표.xlsx
+++ b/작업일지 && 졸작자료/작업일지(김준현)/김준현 5.6.7 계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\작업일지 &amp;&amp; 졸작자료\작업일지(김준현)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D36B7-FE80-45AF-8B18-D8BE101AF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273A0B1-AF5D-47C7-A955-B040C97E85C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>5월 3주차(5.22~)</t>
   </si>
@@ -28,15 +28,7 @@
     <t>7월 계획표</t>
   </si>
   <si>
-    <t xml:space="preserve">
-게임룸 마무리 즉시 더미 클라이언트와의 연동을 통한 동접자 테스트 시작
-다중 접속 테스트 및 서버에서 담당하는 기능 들 추가(포탑, 총알 충전소 등등)</t>
-  </si>
-  <si>
     <t>5월 4주차(5.29~)</t>
-  </si>
-  <si>
-    <t>게임 재시작 처리 및 미비된 동기화 완료 처리</t>
   </si>
   <si>
     <t>6월 2주차</t>
@@ -45,21 +37,37 @@
     <t>6월 1주차</t>
   </si>
   <si>
-    <t xml:space="preserve">DB연동 마무리 및 게임룸 설계 시작(6월 마지막 주)
-</t>
+    <t>5월 계획표</t>
   </si>
   <si>
-    <t>DB연동 작업 및 회원가입 작업 시작(6월 첫번째 주)</t>
+    <t>게임 UI 제작 및 추가 오브젝트 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 계획표</t>
+    <t>게임 UI 제작 및 추가 오브젝트 제작 , 추가 애니메이션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출우주선 만들기 (최대한 디테일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출우주선 만들기 (최대한 디테일)
+추가 오브젝트 제작 , 추가 애니메이션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팅원들과 소통 후 추가 필요한 에셋 제작 
+고급 그래픽스 효과 구현해보기
+(쉐이더 프로그래밍 수업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,6 +76,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -201,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +226,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,10 +271,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,7 +463,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -451,7 +472,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -767,70 +788,70 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D1" s="3" t="s">
-        <v>9</v>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -841,163 +862,165 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" ht="56.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7" t="s">
-        <v>2</v>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
+        <v>9</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="56.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+    <row r="10" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
